--- a/docs/instruments/instruments_bonds.xlsx
+++ b/docs/instruments/instruments_bonds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/media/reference_data/instruments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/473b92f90a934bc4/1 Projects/hedgemind/docs/instruments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A2A1F6BE-C33E-4BD5-880D-640C2304F4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B127C07-A46F-4665-882E-10D915AF0010}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{A2A1F6BE-C33E-4BD5-880D-640C2304F4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21352512-A19B-4BC2-9896-341AEFDB8D94}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6A5695E8-C4FF-4412-8B74-C1EE0AA69659}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUMENTS" sheetId="1" r:id="rId1"/>
@@ -32,28 +32,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="130">
   <si>
@@ -87,18 +65,12 @@
     <t>valuation_method</t>
   </si>
   <si>
-    <t>BOND</t>
-  </si>
-  <si>
     <t>XAF</t>
   </si>
   <si>
     <t>CM</t>
   </si>
   <si>
-    <t>MARK_TO_MARKET</t>
-  </si>
-  <si>
     <t>ticker</t>
   </si>
   <si>
@@ -445,6 +417,12 @@
   </si>
   <si>
     <t>maturity</t>
+  </si>
+  <si>
+    <t>FIXED_INCOME</t>
+  </si>
+  <si>
+    <t>mark_to_market</t>
   </si>
 </sst>
 </file>
@@ -499,6 +477,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -818,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBEDBF0-134C-4DE1-ADE1-F96B82AAA309}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -884,69 +866,69 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
         <v>121</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
         <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S1" t="s">
-        <v>126</v>
-      </c>
-      <c r="T1" t="s">
-        <v>127</v>
-      </c>
-      <c r="U1" t="s">
-        <v>123</v>
-      </c>
-      <c r="V1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>6.25</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N2" s="1">
         <v>44407</v>
@@ -958,13 +940,13 @@
         <v>11323000</v>
       </c>
       <c r="Q2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -978,34 +960,34 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1">
         <v>44407</v>
@@ -1017,13 +999,13 @@
         <v>18882775</v>
       </c>
       <c r="Q3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R3">
         <v>5</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -1037,34 +1019,34 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
       <c r="J4">
         <v>6.25</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N4" s="1">
         <v>44832</v>
@@ -1076,13 +1058,13 @@
         <v>23500000</v>
       </c>
       <c r="Q4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R4">
         <v>7</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1096,34 +1078,34 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5">
         <v>6.25</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N5" s="1">
         <v>44952</v>
@@ -1135,13 +1117,13 @@
         <v>17500000</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R5">
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1155,34 +1137,34 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J6">
         <v>6.5</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N6" s="1">
         <v>45009</v>
@@ -1194,13 +1176,13 @@
         <v>10000000</v>
       </c>
       <c r="Q6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R6">
         <v>5</v>
       </c>
       <c r="S6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1214,34 +1196,34 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
       <c r="J7">
         <v>5.8</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N7" s="1">
         <v>45253</v>
@@ -1253,13 +1235,13 @@
         <v>7867683</v>
       </c>
       <c r="Q7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1273,34 +1255,34 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N8" s="1">
         <v>45253</v>
@@ -1312,13 +1294,13 @@
         <v>6151468</v>
       </c>
       <c r="Q8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R8">
         <v>4</v>
       </c>
       <c r="S8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1332,34 +1314,34 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
       </c>
       <c r="J9">
         <v>6.75</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N9" s="1">
         <v>45253</v>
@@ -1371,13 +1353,13 @@
         <v>2505252</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R9">
         <v>6</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1391,34 +1373,34 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>12</v>
       </c>
       <c r="J10">
         <v>7.25</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N10" s="1">
         <v>45253</v>
@@ -1430,13 +1412,13 @@
         <v>1103225</v>
       </c>
       <c r="Q10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R10">
         <v>8</v>
       </c>
       <c r="S10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1450,34 +1432,34 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11">
         <v>6.25</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N11" s="1">
         <v>45656</v>
@@ -1489,13 +1471,13 @@
         <v>15460550</v>
       </c>
       <c r="Q11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R11">
         <v>5</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1509,34 +1491,34 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N12" s="1">
         <v>45656</v>
@@ -1548,13 +1530,13 @@
         <v>10988995</v>
       </c>
       <c r="Q12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1568,34 +1550,34 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13">
         <v>6.5</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N13" s="1">
         <v>45656</v>
@@ -1607,13 +1589,13 @@
         <v>827295</v>
       </c>
       <c r="Q13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R13">
         <v>5</v>
       </c>
       <c r="S13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1627,34 +1609,34 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>7.5</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N14" s="1">
         <v>45656</v>
@@ -1666,13 +1648,13 @@
         <v>5094504</v>
       </c>
       <c r="Q14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R14">
         <v>7</v>
       </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1686,34 +1668,34 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15">
         <v>6.6</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N15" s="1">
         <v>45656</v>
@@ -1725,13 +1707,13 @@
         <v>4662986</v>
       </c>
       <c r="Q15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R15">
         <v>3</v>
       </c>
       <c r="S15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1745,34 +1727,34 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>6.75</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N16" s="1">
         <v>45656</v>
@@ -1784,13 +1766,13 @@
         <v>12030</v>
       </c>
       <c r="Q16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R16">
         <v>4</v>
       </c>
       <c r="S16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1804,34 +1786,34 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N17" s="1">
         <v>45656</v>
@@ -1843,13 +1825,13 @@
         <v>169135</v>
       </c>
       <c r="Q17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R17">
         <v>6</v>
       </c>
       <c r="S17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T17">
         <v>1</v>
@@ -1863,34 +1845,34 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
         <v>67</v>
       </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18">
         <v>6.6</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1">
         <v>45807</v>
@@ -1902,13 +1884,13 @@
         <v>6624957</v>
       </c>
       <c r="Q18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R18">
         <v>3</v>
       </c>
       <c r="S18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1922,34 +1904,34 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19">
         <v>6.75</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N19" s="1">
         <v>45807</v>
@@ -1961,13 +1943,13 @@
         <v>35623</v>
       </c>
       <c r="Q19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R19">
         <v>4</v>
       </c>
       <c r="S19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1981,34 +1963,34 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N20" s="1">
         <v>45807</v>
@@ -2020,13 +2002,13 @@
         <v>1345996</v>
       </c>
       <c r="Q20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R20">
         <v>6</v>
       </c>
       <c r="S20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2040,34 +2022,34 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J21">
         <v>5.45</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N21" s="1">
         <v>44230</v>
@@ -2079,13 +2061,13 @@
         <v>10679192</v>
       </c>
       <c r="Q21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R21">
         <v>7</v>
       </c>
       <c r="S21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2099,34 +2081,34 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
-        <v>82</v>
-      </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22">
         <v>5.6</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N22" s="1">
         <v>44631</v>
@@ -2138,13 +2120,13 @@
         <v>11487341</v>
       </c>
       <c r="Q22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R22">
         <v>7</v>
       </c>
       <c r="S22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2158,34 +2140,34 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23">
         <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N23" s="1">
         <v>44972</v>
@@ -2197,13 +2179,13 @@
         <v>11085633</v>
       </c>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R23">
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2217,34 +2199,34 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
         <v>86</v>
       </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24">
         <v>6.2</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N24" s="1">
         <v>45511</v>
@@ -2256,13 +2238,13 @@
         <v>2361587</v>
       </c>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R24">
         <v>7</v>
       </c>
       <c r="S24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2276,34 +2258,34 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
         <v>89</v>
       </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J25">
         <v>5.95</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N25" s="1">
         <v>45511</v>
@@ -2315,13 +2297,13 @@
         <v>1538685</v>
       </c>
       <c r="Q25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R25">
         <v>5</v>
       </c>
       <c r="S25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2335,34 +2317,34 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
         <v>92</v>
       </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26">
         <v>4.7</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N26" s="1">
         <v>45511</v>
@@ -2374,13 +2356,13 @@
         <v>1576699</v>
       </c>
       <c r="Q26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R26">
         <v>3</v>
       </c>
       <c r="S26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2394,34 +2376,34 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
         <v>96</v>
       </c>
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
         <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" t="s">
-        <v>12</v>
       </c>
       <c r="J27">
         <v>6.5</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N27" s="1">
         <v>45327</v>
@@ -2433,13 +2415,13 @@
         <v>347303</v>
       </c>
       <c r="Q27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R27">
         <v>5</v>
       </c>
       <c r="S27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T27">
         <v>2</v>
@@ -2453,34 +2435,34 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
         <v>99</v>
       </c>
-      <c r="C28" t="s">
-        <v>101</v>
-      </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
         <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" t="s">
-        <v>12</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N28" s="1">
         <v>45327</v>
@@ -2492,13 +2474,13 @@
         <v>460785</v>
       </c>
       <c r="Q28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R28">
         <v>3</v>
       </c>
       <c r="S28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T28">
         <v>2</v>
@@ -2512,34 +2494,34 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
         <v>103</v>
       </c>
-      <c r="C29" t="s">
-        <v>105</v>
-      </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" t="s">
         <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" t="s">
-        <v>12</v>
       </c>
       <c r="J29">
         <v>7</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N29" s="1">
         <v>45755</v>
@@ -2551,13 +2533,13 @@
         <v>500000</v>
       </c>
       <c r="Q29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R29">
         <v>3</v>
       </c>
       <c r="S29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T29">
         <v>2</v>
@@ -2571,34 +2553,34 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J30">
         <v>6.5</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="N30" s="1">
         <v>45945</v>
@@ -2610,13 +2592,13 @@
         <v>3208600</v>
       </c>
       <c r="Q30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R30">
         <v>5</v>
       </c>
       <c r="S30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2626,79 +2608,6 @@
       </c>
       <c r="V30" s="1">
         <v>46022</v>
-      </c>
-    </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G35" t="str" cm="1">
-        <f t="array" ref="G35:G42">_xlfn.UNIQUE(G2:G30)</f>
-        <v>ETAT DU CONGO</v>
-      </c>
-      <c r="H35" t="str">
-        <f>_xlfn.XLOOKUP(G35,$G$2:$G$30,$H$2:$H$30)</f>
-        <v>CG</v>
-      </c>
-    </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G36" t="str">
-        <v>ETAT DU GABON</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" ref="H36:H42" si="0">_xlfn.XLOOKUP(G36,$G$2:$G$30,$H$2:$H$30)</f>
-        <v>GA</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G37" t="str">
-        <v>ETAT DU CAMEROUN</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>CM</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G38" t="str">
-        <v>ETAT DU TCHAD</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>TD</v>
-      </c>
-    </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G39" t="str">
-        <v>BDEAC</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>CG</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G40" t="str">
-        <v>ALIOS FINANCE</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>CM</v>
-      </c>
-    </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G41" t="str">
-        <v>ACEP CAMEROUN</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>CM</v>
-      </c>
-    </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.35">
-      <c r="G42" t="str">
-        <v>SNPC</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>CG</v>
       </c>
     </row>
   </sheetData>
